--- a/biology/Botanique/Apiaceae/Apiaceae.xlsx
+++ b/biology/Botanique/Apiaceae/Apiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Umbelliferae · Apiacées, Ombellifères
-Les Apiaceae, en français Apiacées, anciennement Umbelliferae, les Ombellifères, sont une famille de plantes dicotylédones présentant quatre caractéristiques[1] : 
+Les Apiaceae, en français Apiacées, anciennement Umbelliferae, les Ombellifères, sont une famille de plantes dicotylédones présentant quatre caractéristiques : 
 Leur inflorescence, typique, est une ombelle d'où l'appellation d’Ombellifères ou Umbelliferae, nom alternatif ; cependant quelques espèces[Lesquelles ?] de la famille ne forment pas d'ombelles ;
 Feuilles alternes, composées, pennées, au pétiole engainant au niveau des nœuds ;
 Tige creuse et dotée de canaux sécréteurs de résines et d'essences odorantes ;
 Fruits secs doubles (dénommés diakènes).
-Cette famille relativement homogène, à répartition cosmopolite, comprend près de 3 500 espèces réparties en 463 genres[2], surtout présentes dans les régions tempérées du monde. C'est l'une des plus importantes familles de plantes à fleurs, après les Orchidaceae, les Asteraceae et les Fabaceae par le nombre d'espèces. Plusieurs de ces espèces sont des légumes (Carotte, Céleri, Fenouil, Panais notamment) ou donnent des condiments appréciés (Persil, Coriandre, Cumin par exemple) mais certaines sont mortellement toxiques, comme la Grande ciguë, la Petite ciguë, l'Œnanthe safranée et le Cerfeuil des fous.
+Cette famille relativement homogène, à répartition cosmopolite, comprend près de 3 500 espèces réparties en 463 genres, surtout présentes dans les régions tempérées du monde. C'est l'une des plus importantes familles de plantes à fleurs, après les Orchidaceae, les Asteraceae et les Fabaceae par le nombre d'espèces. Plusieurs de ces espèces sont des légumes (Carotte, Céleri, Fenouil, Panais notamment) ou donnent des condiments appréciés (Persil, Coriandre, Cumin par exemple) mais certaines sont mortellement toxiques, comme la Grande ciguë, la Petite ciguë, l'Œnanthe safranée et le Cerfeuil des fous.
 </t>
         </is>
       </c>
@@ -519,12 +531,52 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-Le nom générique d’Apium (qui désignait dans l'antiquité le céleri) est originellement utilisé par Pline l'Ancien vers 50 apr. J.-C. pour désigner des plantes ressemblant au céleri[3]. Les Apiaceae, décrites pour la première fois par le botaniste John Lindley en 1836, ont un nom scientifique latin qui dérive du nom du genre type Apium par suffixation -āceae, pluriel féminin du latin -āceus « ressemblance »[4].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique d’Apium (qui désignait dans l'antiquité le céleri) est originellement utilisé par Pline l'Ancien vers 50 apr. J.-C. pour désigner des plantes ressemblant au céleri. Les Apiaceae, décrites pour la première fois par le botaniste John Lindley en 1836, ont un nom scientifique latin qui dérive du nom du genre type Apium par suffixation -āceae, pluriel féminin du latin -āceus « ressemblance ».
 Umbelliferae (du latin umbella, ombrelle qui vient de umbra ombre) est un nom alternatif de cette famille, basé sur la structure des inflorescences disposées en ombelle qui les font ressembler à des ombrelles. Cependant, l’appellation n'étant pas basée sur un nom de genre, beaucoup lui préfèrent Apiaceae, conformément au code international de nomenclature botanique, Umbelliferae (Ombellifères)  faisant partie des noms dits nomen conservandum, c'est-à-dire « nom devant être conservé »[Note 1].
-En 1672 le botaniste Robert Morison publia un ouvrage sur les Ombellifères, première monographie consacrée à une famille de végétaux, intitulée Plantarum umbelliferarum distribution nova[5].
-Synonymes
-Selon Catalogue of Life                                   (5 mars 2021)[6] :
+En 1672 le botaniste Robert Morison publia un ouvrage sur les Ombellifères, première monographie consacrée à une famille de végétaux, intitulée Plantarum umbelliferarum distribution nova.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Apiaceae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Apiaceae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (5 mars 2021) :
 Coriandraceae Burnett
 Sileraceae Bercht. &amp; J.Presl
 Eryngiaceae Bercht. &amp; J.Presl
@@ -545,7 +597,7 @@
 Pastinacaceae Martinov
 Pimpinellaceae Bercht. &amp; J.Presl
 Daucaceae Martinov
-Selon GRIN            (5 mars 2021)[7] :
+Selon GRIN            (5 mars 2021) :
 Actinotaceae A. I. Konstant. &amp; Melikyan
 Ammiaceae Bercht. &amp; J. Presl
 Angelicaceae Martinov
@@ -557,77 +609,119 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Apiaceae</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Apiaceae</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Apiaceae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Apiaceae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Appareil végétatif
-La famille des Apiacées compte principalement des plantes herbacées annuelles souvent odorantes, bisannuelles ou vivaces, mais aussi quelques arbres et arbustes.
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Apiacées compte principalement des plantes herbacées annuelles souvent odorantes, bisannuelles ou vivaces, mais aussi quelques arbres et arbustes.
 Leur appareil souterrain pérennant est très varié : racine pivotante, rhizome ou tubercule.
 Leur tige noueuse est souvent cannelée (sillons dans le sens de la longueur, cette forme étant due à des faisceaux de collenchyme sous-épidermiques qui parcourent la tige sur toute sa longueur) et devient généralement creuse par résorption de la moelle.
 Des canaux sécréteurs d'essences et de résines circulent dans les racines et les tiges, faisant de la majorité des Apiaceae des plantes aromatiques à l'odeur caractéristique forte lorsqu'on les froisse ou on les broie.
-Les feuilles sont alternes, sans stipules, à pétiole engainant partiellement la tige, et le plus souvent composées pennées à folioles finement découpées. Quelques rares espèces ont cependant des feuilles entières (buplèvre par exemple)[8].
-Abandonnant les alcaloïdes et les iridoïdes auxquels les prédateurs ont eu le temps de s'adapter, cette famille est la première avec les Asteraceae à développer deux nouvelles classes de repellents, les lactones sesquiterpéniques[9] et les polyacétyléniques (dérivés de polyacétylène et substances biogénétiquement apparentées) qui ont notamment des propriétés cytotoxiques, antimicrobiennes, anti-inflammatoires, neurotoxiques et phototoxiques[10].
-Appareil reproducteur
-L'inflorescence typique des Apiacées, justement appelées ombellifères, est l'ombelle qui peut être simple ou le plus souvent composée d'ombellules. Elle est parfois condensée en un capitule (Panicaut, Astrance). Les ombelles sont souvent munies à leur base d'un involucre formé de 1 à 20 bractées parfois ramifiées (bractées foliacées) divisées en segments allongés. Ces bractées peuvent devenir épineuses (Panicaut) ou pétaloïdes (Astrance). Les fleurs, généralement de petite taille due à l'inflorescence relativement condensée, à symétrie pentamère, sont le plus souvent blanches ou jaunâtres, quelquefois rougeâtres comme la fleur centrale de l'ombelle de carotte. L'ombelle est en effet souvent polygame, ce qui se traduit par un dimorphisme floral[11] : les fleurs centrales sont bisexuées ou femelles et actinomorphes, les fleurs périphériques sont mâles ou stériles et zygomorphes, avec une corolle plus développée (Berce, Coriandre), contribuant à faire de l'ombelle une simili-fleur. Les périphériques servent essentiellement d'organes d'attraction pour les insectes pollinisateurs et les centrales sont surtout réservées à la reproduction. Le périanthe est constitué d'un calice à 5 sépales minuscules ou absents[12] (perte évolutive), et d'une corolle à 5 pétales libres caducs, parfois échancrés. L'androcée est isostémone, avec 5 étamines alternipétales, à filets libres, et avec des anthères à déhiscence longitudinale. La protandrie favorise la fécondation croisée. Le gynécée comprend deux carpelles antéro-postérieurs, soudés en un ovaire infère. L'ovaire porte deux styles qui s'élargissent à la base en un disque ou coussinet nectarifère (stylopode). Les fruits secs appelés à tort « graines », sont des schizocarpes qui se scindent en deux à maturité (diakènes), chaque partie (akène souvent suspendu au bout d'une columelle bifide) appelée méricarpe contenant une graine. Les méricarpes sont toujours plus ou moins côtelés (5 côtes primaires par méricarpe). Les fruits sont très diversifiés par leurs formes externes : présence de crochets ou d'épines, de protubérances ou de poils, parfois d'ailes, qui sont importants à observer pour la détermination des espèces[8].
+Les feuilles sont alternes, sans stipules, à pétiole engainant partiellement la tige, et le plus souvent composées pennées à folioles finement découpées. Quelques rares espèces ont cependant des feuilles entières (buplèvre par exemple).
+Abandonnant les alcaloïdes et les iridoïdes auxquels les prédateurs ont eu le temps de s'adapter, cette famille est la première avec les Asteraceae à développer deux nouvelles classes de repellents, les lactones sesquiterpéniques et les polyacétyléniques (dérivés de polyacétylène et substances biogénétiquement apparentées) qui ont notamment des propriétés cytotoxiques, antimicrobiennes, anti-inflammatoires, neurotoxiques et phototoxiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Apiaceae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Apiaceae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Caractéristiques générales</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'inflorescence typique des Apiacées, justement appelées ombellifères, est l'ombelle qui peut être simple ou le plus souvent composée d'ombellules. Elle est parfois condensée en un capitule (Panicaut, Astrance). Les ombelles sont souvent munies à leur base d'un involucre formé de 1 à 20 bractées parfois ramifiées (bractées foliacées) divisées en segments allongés. Ces bractées peuvent devenir épineuses (Panicaut) ou pétaloïdes (Astrance). Les fleurs, généralement de petite taille due à l'inflorescence relativement condensée, à symétrie pentamère, sont le plus souvent blanches ou jaunâtres, quelquefois rougeâtres comme la fleur centrale de l'ombelle de carotte. L'ombelle est en effet souvent polygame, ce qui se traduit par un dimorphisme floral : les fleurs centrales sont bisexuées ou femelles et actinomorphes, les fleurs périphériques sont mâles ou stériles et zygomorphes, avec une corolle plus développée (Berce, Coriandre), contribuant à faire de l'ombelle une simili-fleur. Les périphériques servent essentiellement d'organes d'attraction pour les insectes pollinisateurs et les centrales sont surtout réservées à la reproduction. Le périanthe est constitué d'un calice à 5 sépales minuscules ou absents (perte évolutive), et d'une corolle à 5 pétales libres caducs, parfois échancrés. L'androcée est isostémone, avec 5 étamines alternipétales, à filets libres, et avec des anthères à déhiscence longitudinale. La protandrie favorise la fécondation croisée. Le gynécée comprend deux carpelles antéro-postérieurs, soudés en un ovaire infère. L'ovaire porte deux styles qui s'élargissent à la base en un disque ou coussinet nectarifère (stylopode). Les fruits secs appelés à tort « graines », sont des schizocarpes qui se scindent en deux à maturité (diakènes), chaque partie (akène souvent suspendu au bout d'une columelle bifide) appelée méricarpe contenant une graine. Les méricarpes sont toujours plus ou moins côtelés (5 côtes primaires par méricarpe). Les fruits sont très diversifiés par leurs formes externes : présence de crochets ou d'épines, de protubérances ou de poils, parfois d'ailes, qui sont importants à observer pour la détermination des espèces.
 			Racine de persil.
 			Ombelle composée.
-			Le rôle de la fleur centrale stérile, d'un pourpre foncé, reste encore débattu[13].
+			Le rôle de la fleur centrale stérile, d'un pourpre foncé, reste encore débattu.
 			Diagramme floral de Laserpitium.
 			La grande astrance.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Apiaceae</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Apiaceae</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Apiaceae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Apiaceae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Liste des sous-familles, tribus et sous-tribus</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GRIN            (5 mars 2021)[7], la famille des Apiaceae comprend trois sous-familles, vingt-cinq tribus et cinq sous-tribus :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GRIN            (5 mars 2021), la famille des Apiaceae comprend trois sous-familles, vingt-cinq tribus et cinq sous-tribus :
 sous-famille Apioideae
 tribu Aciphylleae
 tribu Annesorhizeae
@@ -661,36 +755,38 @@
 sous-tribu Tordyliinae
 sous-famille Azorelloideae
 sous-famille Mackinlayoideae
-Catalogue of Life                                   (5 mars 2021)[6] ajoute la sous-famille des Hydrocotyloideae.
+Catalogue of Life                                   (5 mars 2021) ajoute la sous-famille des Hydrocotyloideae.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Apiaceae</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Apiaceae</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Apiaceae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Apiaceae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Apiaceae est présente dans tous les continents habités, mais surtout dans les régions tempérées, spécialement de l'Ancien Monde.
 En France, cette famille regroupe en particulier : l'Anis vert, l'Aneth, la Berce, la Carotte, le Cerfeuil, le Céleri, le Persil, le Panais, le Fenouil, la Coriandre, la Livèche, le Cumin, l'Angélique, la Criste marine, mais aussi : la Ciguë, le  Séséli tortueux, les Panicauts, les Œnanthes, les Buplèvres, les Aches, les Lasers et le Moloposperme du Péloponnèse.
@@ -698,43 +794,83 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Apiaceae</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Apiaceae</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Apiaceae</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Apiaceae</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes alimentaires
-Daucus carota, la Carotte,
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes alimentaires</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daucus carota, la Carotte,
 Pastinaca sativa, le Panais,
 Apium graveolens, le Céleri,
 Foeniculum vulgare, le Fenouil,
-Aegopodium podagraria, l'Égopode podagraire[14],
+Aegopodium podagraria, l'Égopode podagraire,
 Smyrnium olusatrum, le Maceron,
 Chaerophyllum bulbosum, le Cerfeuil tubéreux (uniquement la racine).
-Ces plantes peuvent être confondues avec des Apiaceae toxiques mortelles : Conium maculatum (grande ciguë mortelle à petit dose), Aethusa cynapium (petite ciguë), Cicuta virosa (ciguë aquatique), Oenanthe crocata (œnanthe safranée), Ferula communis (Férule). Un moyen mnémotechnique de les distinguer en France est : « s'il y a des poils, c'est au poil », les ombellifères toxiques mortelles n'étant pas poilues[15]. Ce moyen mnémotechnique est juste indicatif car les dangers de confusion restent forts et le cueilleur ne doit pas oublier la possible existence d'exceptions : certaines ombellifères poilues, sans être mortelles, sont toxiques (par exemple les chérophylles, dont les feuilles et les tiges sont toxiques, et présentent des poils). Il arrive de plus que les informations rapportant la toxicité de diverses plantes de cette famille, dont les chérophylles, proviennent de confusions avec des Ombellifères toxiques comme la Grande ciguë[16],[17].
-Condiments et épices
-Anthriscus cerefolium, le Cerfeuil,
+Ces plantes peuvent être confondues avec des Apiaceae toxiques mortelles : Conium maculatum (grande ciguë mortelle à petit dose), Aethusa cynapium (petite ciguë), Cicuta virosa (ciguë aquatique), Oenanthe crocata (œnanthe safranée), Ferula communis (Férule). Un moyen mnémotechnique de les distinguer en France est : « s'il y a des poils, c'est au poil », les ombellifères toxiques mortelles n'étant pas poilues. Ce moyen mnémotechnique est juste indicatif car les dangers de confusion restent forts et le cueilleur ne doit pas oublier la possible existence d'exceptions : certaines ombellifères poilues, sans être mortelles, sont toxiques (par exemple les chérophylles, dont les feuilles et les tiges sont toxiques, et présentent des poils). Il arrive de plus que les informations rapportant la toxicité de diverses plantes de cette famille, dont les chérophylles, proviennent de confusions avec des Ombellifères toxiques comme la Grande ciguë,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Apiaceae</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Apiaceae</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Condiments et épices</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Anthriscus cerefolium, le Cerfeuil,
 Petroselinum crispum, le Persil,
 Cuminum cyminum, le Cumin,
 Carum carvi, le Carvi,
@@ -742,52 +878,190 @@
 Levisticum officinale, la Livèche,
 Trachyspermum ammi, l'Ajowan
 Angelica sylvestris, l'Angélique des bois,
-Myrrhis odorata, le Cerfeuil musqué
-Plantes médicinales
-Foeniculum vulgare, le Fenouil
+Myrrhis odorata, le Cerfeuil musqué</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Apiaceae</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Apiaceae</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Plantes médicinales</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Foeniculum vulgare, le Fenouil
 Anethum graveolens, l'Aneth
 Angelica sylvestris, l'Angélique des bois,
 Centella asiatica
-Peucedanum ostruthium, l'Impératoire ou Benjoin
-Plantes ornementales
-Astrantia major, la Grande Astrance
+Peucedanum ostruthium, l'Impératoire ou Benjoin</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Apiaceae</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Apiaceae</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Plantes ornementales</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Astrantia major, la Grande Astrance
 Orlaya grandiflora, l'Orlaya à grandes fleurs
-Daucus decipiens, le Persil de Madère
-Autres
-Angelica heterocarpa, l'Angélique des estuaires
-Pharmacopée
-L’hyperpigmentation provoquée par l’application de certaines Rutaceae et Apiaceae riches en furanocoumarines a été mise à profit par les Égyptiens, la médecine ayurvédique et Dioscoride pour traiter le psoriasis, le vitiligo et d’autres affections dermatologiques. La médecine contemporaine a repris ces pratiques anciennes pour traiter les mêmes affections. Cette photochimiothérapie (PUVAthérapie) consiste en l’ingestion par le patient d’une dose voisine de 0,6 mg/kg de xanthotoxine et ensuite, il doit être soumis à une exposition contrôlée de rayons UV longs (320-380 nm) (Béani, 1991). Cette pratique n’est pas sans risque et peut être la cause de cancérogenèse, si l’on considère la photosensibilisation de ces furanocoumarines en cas d’exposition solaire (Lindelöf et al., 1991). La présence de ces furanocoumarines dans l’huile essentielle de Citrus aurantium L. ssp. bergamia Engler, a poussé l’Union Européenne, en juin 1995, à interdire la commercialisation des préparations destinées à accélérer le bronzage et dont la teneur en bergaptène dépassait 0,2 %(Folléa, 1995 ; Bruneton, 2001).
+Daucus decipiens, le Persil de Madère</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Apiaceae</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Apiaceae</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Angelica heterocarpa, l'Angélique des estuaires</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Apiaceae</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Apiaceae</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Pharmacopée</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’hyperpigmentation provoquée par l’application de certaines Rutaceae et Apiaceae riches en furanocoumarines a été mise à profit par les Égyptiens, la médecine ayurvédique et Dioscoride pour traiter le psoriasis, le vitiligo et d’autres affections dermatologiques. La médecine contemporaine a repris ces pratiques anciennes pour traiter les mêmes affections. Cette photochimiothérapie (PUVAthérapie) consiste en l’ingestion par le patient d’une dose voisine de 0,6 mg/kg de xanthotoxine et ensuite, il doit être soumis à une exposition contrôlée de rayons UV longs (320-380 nm) (Béani, 1991). Cette pratique n’est pas sans risque et peut être la cause de cancérogenèse, si l’on considère la photosensibilisation de ces furanocoumarines en cas d’exposition solaire (Lindelöf et al., 1991). La présence de ces furanocoumarines dans l’huile essentielle de Citrus aurantium L. ssp. bergamia Engler, a poussé l’Union Européenne, en juin 1995, à interdire la commercialisation des préparations destinées à accélérer le bronzage et dont la teneur en bergaptène dépassait 0,2 %(Folléa, 1995 ; Bruneton, 2001).
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Apiaceae</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Apiaceae</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Apiaceae</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Apiaceae</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Calendrier</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le calendrier républicain, Ciguë était le nom donné au 14e jour du mois de germinal[18].
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le calendrier républicain, Ciguë était le nom donné au 14e jour du mois de germinal.
 </t>
         </is>
       </c>
